--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_3529.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_3529.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3529</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Wahab Riaz</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>02/02/2008</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2781</t>
+          <t>2781</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2815</t>
+          <t>2815</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2816</t>
+          <t>2816</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2817</t>
+          <t>2817</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2835</t>
+          <t>2835</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -760,7 +824,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3197</t>
+          <t>3197</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -812,7 +876,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3198</t>
+          <t>3198</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -864,7 +928,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3201</t>
+          <t>3201</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -916,7 +980,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3203</t>
+          <t>3203</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -956,7 +1020,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>26/01/2011</t>
@@ -964,7 +1027,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3223</t>
+          <t>3223</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1016,7 +1079,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3225</t>
+          <t>3225</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1068,7 +1131,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3228</t>
+          <t>3228</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1120,7 +1183,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3230</t>
+          <t>3230</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1172,7 +1235,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3251</t>
+          <t>3251</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1212,7 +1275,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>14/03/2011</t>
@@ -1220,7 +1282,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3267</t>
+          <t>3267</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1260,7 +1322,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>19/03/2011</t>
@@ -1268,7 +1329,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3274</t>
+          <t>3274</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1308,7 +1369,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>23/03/2011</t>
@@ -1316,7 +1376,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3277</t>
+          <t>3277</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1368,7 +1428,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3282</t>
+          <t>3282</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1408,7 +1468,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>23/04/2011</t>
@@ -1416,7 +1475,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3287</t>
+          <t>3287</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1456,7 +1515,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>25/04/2011</t>
@@ -1464,7 +1522,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3288</t>
+          <t>3288</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1516,7 +1574,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3289</t>
+          <t>3289</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1568,7 +1626,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3291</t>
+          <t>3291</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1608,7 +1666,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>10/02/2012</t>
@@ -1616,7 +1673,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3372</t>
+          <t>3372</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1668,7 +1725,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3374</t>
+          <t>3374</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1708,7 +1765,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>18/03/2012</t>
@@ -1716,7 +1772,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3399</t>
+          <t>3399</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1768,7 +1824,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3488</t>
+          <t>3488</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1820,7 +1876,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3489</t>
+          <t>3489</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1872,7 +1928,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3491</t>
+          <t>3491</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1924,7 +1980,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3500</t>
+          <t>3500</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1976,7 +2032,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3506</t>
+          <t>3506</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2028,7 +2084,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3509</t>
+          <t>3509</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2080,7 +2136,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3514</t>
+          <t>3514</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2132,7 +2188,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3531</t>
+          <t>3531</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2184,7 +2240,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3532</t>
+          <t>3532</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2236,7 +2292,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3533</t>
+          <t>3533</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2276,7 +2332,6 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>21/07/2013</t>
@@ -2284,7 +2339,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3535</t>
+          <t>3535</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2336,7 +2391,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3569</t>
+          <t>3569</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2388,7 +2443,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3571</t>
+          <t>3571</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2440,7 +2495,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3574</t>
+          <t>3574</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2480,7 +2535,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>23/08/2014</t>
@@ -2488,7 +2542,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3658</t>
+          <t>3658</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2540,7 +2594,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3662</t>
+          <t>3662</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2592,7 +2646,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3666</t>
+          <t>3666</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2644,7 +2698,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3677</t>
+          <t>3677</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2696,7 +2750,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3679</t>
+          <t>3679</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2748,7 +2802,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3713</t>
+          <t>3713</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2800,7 +2854,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3715</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2840,7 +2894,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>14/12/2014</t>
@@ -2848,7 +2901,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3717</t>
+          <t>3717</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2900,7 +2953,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3751</t>
+          <t>3751</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2952,7 +3005,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3757</t>
+          <t>3757</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3004,7 +3057,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3770</t>
+          <t>3770</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3056,7 +3109,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3772</t>
+          <t>3772</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3108,7 +3161,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3776</t>
+          <t>3776</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3148,7 +3201,6 @@
           <t>53</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>15/03/2015</t>
@@ -3156,7 +3208,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3789</t>
+          <t>3789</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3208,7 +3260,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3792</t>
+          <t>3792</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3260,7 +3312,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3797</t>
+          <t>3797</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3312,7 +3364,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3798</t>
+          <t>3798</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3364,7 +3416,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3799</t>
+          <t>3799</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3404,7 +3456,6 @@
           <t>58</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>26/05/2015</t>
@@ -3412,7 +3463,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3801</t>
+          <t>3801</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3452,7 +3503,6 @@
           <t>59</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>29/05/2015</t>
@@ -3460,7 +3510,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3802</t>
+          <t>3802</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3512,7 +3562,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3803</t>
+          <t>3803</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3552,7 +3602,6 @@
           <t>61</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>01/10/2015</t>
@@ -3560,7 +3609,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3836</t>
+          <t>3836</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3612,7 +3661,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3837</t>
+          <t>3837</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3652,7 +3701,6 @@
           <t>63</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
           <t>05/10/2015</t>
@@ -3660,7 +3708,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3838</t>
+          <t>3838</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3700,7 +3748,6 @@
           <t>64</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>11/11/2015</t>
@@ -3708,7 +3755,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3858</t>
+          <t>3858</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3760,7 +3807,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3859</t>
+          <t>3859</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3812,7 +3859,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3861</t>
+          <t>3861</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3864,7 +3911,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3863</t>
+          <t>3863</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3916,7 +3963,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3879</t>
+          <t>3879</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3968,7 +4015,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3883</t>
+          <t>3883</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4008,7 +4055,6 @@
           <t>70</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>24/08/2016</t>
@@ -4016,7 +4062,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3925</t>
+          <t>3925</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4068,7 +4114,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3926</t>
+          <t>3926</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4120,7 +4166,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3928</t>
+          <t>3928</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4172,7 +4218,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3939</t>
+          <t>3939</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4212,7 +4258,6 @@
           <t>74</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>02/10/2016</t>
@@ -4220,7 +4265,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3943</t>
+          <t>3943</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4260,7 +4305,6 @@
           <t>75</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>05/10/2016</t>
@@ -4268,7 +4312,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3944</t>
+          <t>3944</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4320,7 +4364,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3972</t>
+          <t>3972</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4372,7 +4416,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3981</t>
+          <t>3981</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4412,7 +4456,6 @@
           <t>78</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>07/04/2017</t>
@@ -4420,7 +4463,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4017</t>
+          <t>4017</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4472,7 +4515,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4034</t>
+          <t>4034</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4524,7 +4567,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4304</t>
+          <t>4304</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4576,7 +4619,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4308</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4628,7 +4671,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4319</t>
+          <t>4319</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4668,7 +4711,6 @@
           <t>83</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
           <t>16/06/2019</t>
@@ -4676,7 +4718,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4324</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4728,7 +4770,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4334</t>
+          <t>4334</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4768,7 +4810,6 @@
           <t>85</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
           <t>26/06/2019</t>
@@ -4776,7 +4817,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4337</t>
+          <t>4337</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4828,7 +4869,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4340</t>
+          <t>4340</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4880,7 +4921,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4349</t>
+          <t>4349</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4932,7 +4973,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4375</t>
+          <t>4375</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4984,7 +5025,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4376</t>
+          <t>4376</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5036,7 +5077,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4432</t>
+          <t>4432</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5088,7 +5129,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4434</t>
+          <t>4434</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5127,7 +5168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5149,7 +5190,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -5186,7 +5227,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2781</t>
+          <t>2781</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -5223,7 +5264,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2815</t>
+          <t>2815</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -5260,7 +5301,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2816</t>
+          <t>2816</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -5297,7 +5338,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2817</t>
+          <t>2817</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -5334,7 +5375,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2835</t>
+          <t>2835</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -5371,7 +5412,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3197</t>
+          <t>3197</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -5408,7 +5449,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3198</t>
+          <t>3198</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -5445,7 +5486,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3201</t>
+          <t>3201</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -5482,7 +5523,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3203</t>
+          <t>3203</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -5519,7 +5560,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3225</t>
+          <t>3225</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -5556,7 +5597,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3228</t>
+          <t>3228</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -5593,7 +5634,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3230</t>
+          <t>3230</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -5630,7 +5671,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3251</t>
+          <t>3251</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -5667,7 +5708,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3267</t>
+          <t>3267</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -5704,7 +5745,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3274</t>
+          <t>3274</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -5741,7 +5782,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3277</t>
+          <t>3277</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -5778,7 +5819,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3282</t>
+          <t>3282</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -5815,7 +5856,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3287</t>
+          <t>3287</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -5852,7 +5893,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3288</t>
+          <t>3288</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -5889,7 +5930,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3289</t>
+          <t>3289</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -5926,7 +5967,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3291</t>
+          <t>3291</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -5963,7 +6004,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3372</t>
+          <t>3372</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -6000,7 +6041,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3374</t>
+          <t>3374</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -6037,7 +6078,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3399</t>
+          <t>3399</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -6074,7 +6115,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3488</t>
+          <t>3488</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -6111,7 +6152,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3489</t>
+          <t>3489</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -6148,7 +6189,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3491</t>
+          <t>3491</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -6185,7 +6226,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3500</t>
+          <t>3500</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6222,7 +6263,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3506</t>
+          <t>3506</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6259,7 +6300,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3509</t>
+          <t>3509</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6296,7 +6337,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3514</t>
+          <t>3514</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6333,7 +6374,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3531</t>
+          <t>3531</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6370,7 +6411,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3532</t>
+          <t>3532</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -6407,7 +6448,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3533</t>
+          <t>3533</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -6444,7 +6485,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3535</t>
+          <t>3535</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -6481,7 +6522,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3569</t>
+          <t>3569</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -6518,7 +6559,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3571</t>
+          <t>3571</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -6555,7 +6596,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3574</t>
+          <t>3574</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -6592,7 +6633,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3658</t>
+          <t>3658</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -6629,7 +6670,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3662</t>
+          <t>3662</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -6666,7 +6707,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3666</t>
+          <t>3666</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -6703,7 +6744,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3677</t>
+          <t>3677</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -6740,7 +6781,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3679</t>
+          <t>3679</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -6777,7 +6818,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3713</t>
+          <t>3713</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6814,7 +6855,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3715</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6851,7 +6892,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3717</t>
+          <t>3717</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6888,7 +6929,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3751</t>
+          <t>3751</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6925,7 +6966,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3757</t>
+          <t>3757</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6962,7 +7003,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3770</t>
+          <t>3770</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6999,7 +7040,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3772</t>
+          <t>3772</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -7036,7 +7077,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3776</t>
+          <t>3776</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -7073,7 +7114,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3789</t>
+          <t>3789</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -7110,7 +7151,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3792</t>
+          <t>3792</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -7147,7 +7188,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3797</t>
+          <t>3797</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -7184,7 +7225,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3798</t>
+          <t>3798</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -7221,7 +7262,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3799</t>
+          <t>3799</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -7258,7 +7299,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3801</t>
+          <t>3801</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -7295,7 +7336,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3802</t>
+          <t>3802</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -7332,7 +7373,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3803</t>
+          <t>3803</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -7369,7 +7410,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3836</t>
+          <t>3836</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -7406,7 +7447,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3837</t>
+          <t>3837</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -7443,7 +7484,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3838</t>
+          <t>3838</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -7480,7 +7521,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3858</t>
+          <t>3858</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -7517,7 +7558,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3859</t>
+          <t>3859</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -7554,7 +7595,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3861</t>
+          <t>3861</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -7591,7 +7632,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3863</t>
+          <t>3863</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -7628,7 +7669,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3879</t>
+          <t>3879</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -7665,7 +7706,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3883</t>
+          <t>3883</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -7702,7 +7743,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3925</t>
+          <t>3925</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -7739,7 +7780,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3926</t>
+          <t>3926</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -7776,7 +7817,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3928</t>
+          <t>3928</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -7813,7 +7854,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3939</t>
+          <t>3939</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -7850,7 +7891,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3943</t>
+          <t>3943</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -7887,7 +7928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3944</t>
+          <t>3944</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -7924,7 +7965,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3972</t>
+          <t>3972</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -7961,7 +8002,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3981</t>
+          <t>3981</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -7998,7 +8039,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4017</t>
+          <t>4017</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -8035,7 +8076,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4034</t>
+          <t>4034</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -8072,7 +8113,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4304</t>
+          <t>4304</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -8109,7 +8150,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4308</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -8146,7 +8187,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4319</t>
+          <t>4319</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -8183,7 +8224,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4324</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -8220,7 +8261,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4334</t>
+          <t>4334</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -8257,7 +8298,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4337</t>
+          <t>4337</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -8294,7 +8335,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4340</t>
+          <t>4340</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -8331,7 +8372,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4349</t>
+          <t>4349</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -8368,7 +8409,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4375</t>
+          <t>4375</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -8405,7 +8446,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4376</t>
+          <t>4376</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -8442,7 +8483,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4432</t>
+          <t>4432</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -8479,7 +8520,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4434</t>
+          <t>4434</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -8507,6 +8548,545 @@
           <t>1/65</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3928</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5.09%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3939</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3943</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3944</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3972</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3.41%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3981</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5.45%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4017</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4034</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>17.14%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4304</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4308</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>16.92%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4319</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4324</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.30%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4334</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4337</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>6.52%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.63%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4349</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.66%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4375</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.33%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4376</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4432</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>18.71%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4434</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_3529.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_3529.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8649,7 +8650,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8665,9 +8665,6 @@
       <c r="B4" t="n">
         <v>9</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8683,9 +8680,6 @@
       <c r="B5" t="n">
         <v>10</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8761,9 +8755,6 @@
       <c r="B8" t="n">
         <v>11</v>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8806,10 +8797,6 @@
           <t>4304</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8855,9 +8842,6 @@
       <c r="B12" t="n">
         <v>10</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8900,10 +8884,6 @@
           <t>4334</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9036,10 +9016,6 @@
           <t>4376</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9082,11 +9058,342 @@
           <t>4434</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3928</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3939</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3943</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3944</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3972</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3981</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4017</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4034</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4304</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4308</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4319</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4324</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4334</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4337</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4349</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4375</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4376</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4432</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4434</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_3529.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_3529.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8650,6 +8649,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8665,6 +8665,9 @@
       <c r="B4" t="n">
         <v>9</v>
       </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8680,6 +8683,9 @@
       <c r="B5" t="n">
         <v>10</v>
       </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8755,6 +8761,9 @@
       <c r="B8" t="n">
         <v>11</v>
       </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8797,6 +8806,10 @@
           <t>4304</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8842,6 +8855,9 @@
       <c r="B12" t="n">
         <v>10</v>
       </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8884,6 +8900,10 @@
           <t>4334</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9016,6 +9036,10 @@
           <t>4376</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9058,342 +9082,11 @@
           <t>4434</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3928</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3939</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3943</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3944</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3972</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3981</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4017</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4034</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4304</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4308</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4319</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4324</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4334</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4337</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4340</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4349</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4375</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4376</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4432</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4434</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_3529.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_3529.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -557,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>02/02/2008</t>
@@ -1020,6 +1020,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>26/01/2011</t>
@@ -1275,6 +1276,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>14/03/2011</t>
@@ -1322,6 +1324,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>19/03/2011</t>
@@ -1369,6 +1372,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>23/03/2011</t>
@@ -1468,6 +1472,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>23/04/2011</t>
@@ -1515,6 +1520,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>25/04/2011</t>
@@ -1666,6 +1672,7 @@
           <t>23</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>10/02/2012</t>
@@ -1765,6 +1772,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>18/03/2012</t>
@@ -2332,6 +2340,7 @@
           <t>36</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>21/07/2013</t>
@@ -2535,6 +2544,7 @@
           <t>40</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>23/08/2014</t>
@@ -2894,6 +2904,7 @@
           <t>47</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>14/12/2014</t>
@@ -3201,6 +3212,7 @@
           <t>53</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>15/03/2015</t>
@@ -3456,6 +3468,7 @@
           <t>58</t>
         </is>
       </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>26/05/2015</t>
@@ -3503,6 +3516,7 @@
           <t>59</t>
         </is>
       </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>29/05/2015</t>
@@ -3602,6 +3616,7 @@
           <t>61</t>
         </is>
       </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>01/10/2015</t>
@@ -3701,6 +3716,7 @@
           <t>63</t>
         </is>
       </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
           <t>05/10/2015</t>
@@ -3748,6 +3764,7 @@
           <t>64</t>
         </is>
       </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>11/11/2015</t>
@@ -4055,6 +4072,7 @@
           <t>70</t>
         </is>
       </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>24/08/2016</t>
@@ -4258,6 +4276,7 @@
           <t>74</t>
         </is>
       </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>02/10/2016</t>
@@ -4305,6 +4324,7 @@
           <t>75</t>
         </is>
       </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>05/10/2016</t>
@@ -4456,6 +4476,7 @@
           <t>78</t>
         </is>
       </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>07/04/2017</t>
@@ -4711,6 +4732,7 @@
           <t>83</t>
         </is>
       </c>
+      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
           <t>16/06/2019</t>
@@ -4810,6 +4832,7 @@
           <t>85</t>
         </is>
       </c>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
           <t>26/06/2019</t>
@@ -8552,543 +8575,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3928</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>9</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>5.09%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3939</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>9</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3943</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>9</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3944</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>10</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3972</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.41%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3981</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5.45%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4017</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>11</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4034</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>17.14%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4304</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4308</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>16.92%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4319</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4324</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.30%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4334</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4337</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>6.52%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4340</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>8</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.63%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4349</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>8</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0.66%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4375</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.33%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4376</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4432</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>8</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>18.71%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4434</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>